--- a/biology/Mycologie/Hortiboletus/Hortiboletus.xlsx
+++ b/biology/Mycologie/Hortiboletus/Hortiboletus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hortiboletus est un genre de la famille des Boletaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hortiboletus (Horti = jardin, boletus = bolet ; "Bolet de jardin") sont des petits bolets xérocomoïdes ayant tendance à pousser dans les jardins, les parcs, les clairières et autres zones herbeuses.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (11 décembre 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (11 décembre 2023) :
 Hortiboletus amygdalinus Xue T.Zhu &amp; Zhu L.Yang
 Hortiboletus arduinus N.K.Zeng, H.J.Xie &amp; W.F.Lin
 Hortiboletus bubalinus (Oolbekk. &amp; Duin) L.Albert &amp; Dima
@@ -556,11 +572,7 @@
 Hortiboletus napaeus N.K.Zeng, H.J.Xie, S.Jiang &amp; Zhi Q.Liang
 Hortiboletus rubellus (Krombh.) Simonini, Vizzini &amp; Gelardi
 Hortiboletus rupicapreus Svetash., A.V.Alexandrova, O.V.Morozova &amp; T.H.G.Pham
-Hortiboletus subpaludosus (W.F.Chiu) Xue T.Zhu &amp; Zhu L.Yang
-Espèces en France métropolitaine
-Hortiboletus bubalinus (Oolbekk. &amp; Duin) L.Albert &amp; Dima
-Hortiboletus engelii (Hlaváček) Biketova &amp; Wasser
-Hortiboletus rubellus (Krombh.) Simonini, Vizzini &amp; Gelardi</t>
+Hortiboletus subpaludosus (W.F.Chiu) Xue T.Zhu &amp; Zhu L.Yang</t>
         </is>
       </c>
     </row>
@@ -585,12 +597,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces en France métropolitaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hortiboletus bubalinus (Oolbekk. &amp; Duin) L.Albert &amp; Dima
+Hortiboletus engelii (Hlaváček) Biketova &amp; Wasser
+Hortiboletus rubellus (Krombh.) Simonini, Vizzini &amp; Gelardi</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hortiboletus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hortiboletus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hortiboletus Simonini, Vizzini &amp; Gelardi[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Hortiboletus Simonini, Vizzini &amp; Gelardi.
 </t>
         </is>
       </c>
